--- a/Excel/productimage.xlsx
+++ b/Excel/productimage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leondk/Documents/GitHub/Deadline-T2-22.10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leondk/Documents/GitHub/Deadline-T2-22.10/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD0DA3C-4EDB-4A43-BE6C-7FB7575A2ABD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEFE66C-B429-3042-B03E-3494E060AFF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{2FD23E7B-6FB4-D544-8962-4916D3101B21}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{2FD23E7B-6FB4-D544-8962-4916D3101B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>MaSP</t>
   </si>
@@ -33,56 +33,92 @@
     <t>CacDuongDan</t>
   </si>
   <si>
-    <t>images/product-img/keyboard/Razer/BW X Chroma Mercury/1.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Razer/BW-Chroma-v2/1.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Razer/BW-Ultimate-2016/1.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/Mouse/Logitech/g403.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/Mouse/Logitech/g603.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/Mouse/Logitech/g903.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/Mouse/Razer/atheris.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/Mouse/Razer/razer_basiliskess.png</t>
-  </si>
-  <si>
-    <t>images/product-img/Mouse/Razer/razer-DE.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Corsair/k63-wireless/k63wireless.jpg, images/product-img/keyboard/Corsair/k63-wireless/k63wireless.png</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Corsair/k65-lux-rgb/k65.png, images/product-img/keyboard/Corsair/k65-lux-rgb/k65.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Corsair/k95-rgb-Gunmetal/k95-gunmetal.png, images/product-img/keyboard/Corsair/k95-rgb-Gunmetal/k95-gunmetal.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Leopold/fc660m-PD/fc660m.jpg, images/product-img/keyboard/Leopold/fc660m-PD/2.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Leopold/fc750r-PD/fc750r-pd.jpg, images/product-img/keyboard/Leopold/fc750r-PD/2.jpg</t>
-  </si>
-  <si>
-    <t>images/product-img/keyboard/Leopold/fc980m-pd/fc980m-pd.jpg, images/product-img/keyboard/Leopold/fc980m-pd/2.png</t>
+    <t>images/product-img/headphone/asus/fusion 300/1.jpg , images/product-img/headphone/asus/fusion 300/2.jpg , images/product-img/headphone/asus/fusion 300/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/headphone/asus/fusion 500/1.jpg , images/product-img/headphone/asus/fusion. 500/2.jpg , images/product-img/headphone/asus/fusion. 500/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/headphone/asus/fusion wireless/1.jpg , images/product-img/headphone/asus/fusion wireless/2.jpg , images/product-img/headphone/asus/fusion wireless/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/headphone/corsair/hs50 carbon/1.png , images/product-img/headphone/corsair/hs50 carbon/2.png , images/product-img/headphone/corsair/hs50 carbon/3.png</t>
+  </si>
+  <si>
+    <t>images/product-img/headphone/corsair/void pro wireless/1.png , images/product-img/headphone/corsair/void pro wireless/2.png , images/product-img/headphone/corsair/void pro wireless/3.png</t>
+  </si>
+  <si>
+    <t>images/product-img/headphone/corsair/void pro wiress rgb/1.png , images/product-img/headphone/corsair/void pro wiress rgb/2.png , images/product-img/headphone/corsair/void pro wiress rgb/3.png</t>
+  </si>
+  <si>
+    <t>images/product-img/headphone/hyperx/cloud alpha/1.jpg , images/product-img/headphone/hyperx/cloud alpha/2.jpg , images/product-img/headphone/hyperx/cloud alpha/3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/product-img/headphone/hyperx/revolver s/1.jpg , images/product-img/headphone/hyperx/revolver s/2.jpg , images/product-img/headphone/hyperx/revolver s/3.jpg </t>
+  </si>
+  <si>
+    <t>images/product-img/headphone/hyperx/stinger/1.jpg , images/product-img/headphone/hyperx/stinger/2.jpg , images/product-img/headphone/hyperx/stinger/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/corsair/corsair k63 wireless/1.png , images/product-img/keyboard/corsair/corsair k63 wireless/2.png , images/product-img/keyboard/corsair/corsair k63 wireless/3.png</t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/corsair/corsair k70 rgb mk2 se/1.png , images/product-img/keyboard/corsair/corsair k70 rgb mk2 se/2.png , images/product-img/keyboard/corsair/corsair k70 rgb mk2 se/3.png</t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/corsair/corsair K95 rgb platinum gunmental/1.jpg , images/product-img/keyboard/corsair/corsair K95 rgb platinum gunmental/2.jpg , images/product-img/keyboard/corsair/corsair K95 rgb platinum gunmental/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/leopold/fc660m-PD/1.jpg , images/product-img/keyboard/leopold/fc660m-PD/2.jpg , images/product-img/keyboard/leopold/fc660m-PD/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/leopold/fc750r-PD/1.jpg , images/product-img/keyboard/leopold/fc750r-PD/2.jpg , images/product-img/keyboard/leopold/fc750r-PD/3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/product-img/keyboard/leopold/fc980m-PD/1.jpg , images/product-img/keyboard/leopold/fc980m-PD/2.jpg , images/product-img/keyboard/leopold/fc980m-PD/3.jpg </t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/razer/razer blackwidow elite/1.jpg , images/product-img/keyboard/razer/razer blackwidow elite/2.jpg , images/product-img/keyboard/razer/razer blackwidow elite/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/razer/razer blackwidow tournament edition quat pink/1.jpg , images/product-img/keyboard/razer/razer blackwidow tournament edition quat pink/2.jpg , images/product-img/keyboard/razer/razer blackwidow tournament edition quat pink/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/keyboard/razer/razer blackwidow x chroma mercury edition/1.jpg , images/product-img/keyboard/razer/razer blackwidow x chroma mercury edition/2.jpg , images/product-img/keyboard/razer/razer blackwidow x chroma mercury edition/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/asus/gladius 2/1.jpg , images/product-img/mouse/asus/gladius 2/2.jpg , images/product-img/mouse/asus/gladius 2/3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images/product-img/mouse/asus/pugio/1.jpg , images/product-img/mouse/asus/pugio/2.jpg , images/product-img/mouse/asus/pugio/3.jpg </t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/asus/spatha/1.jpg , images/product-img/mouse/asus/spatha/2.jpg , images/product-img/mouse/asus/spatha/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/logitech/g603/1.jpg , images/product-img/mouse/logitech/g603/2.jpg , images/product-img/mouse/logitech/g603/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/logitech/g703/1.jpg , images/product-img/mouse/logitech/g703/2.jpg , images/product-img/mouse/logitech/g703/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/logitech/g903/1.jpg , images/product-img/mouse/logitech/g903/2.jpg , images/product-img/mouse/logitech/g903/3.jpg</t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/zowie/benq ec1-a/1.png , images/product-img/mouse/zowie/benq ec1-a/2.png , images/product-img/mouse/zowie/benq ec1-a/3.png</t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/zowie/benq ec1-b csgo/1.png , images/product-img/mouse/zowie/benq ec1-b csgo/2.png , images/product-img/mouse/zowie/benq ec1-b csgo/3.png</t>
+  </si>
+  <si>
+    <t>images/product-img/mouse/zowie/benq fk2/1.jpg , images/product-img/mouse/zowie/benq fk2/2.jpg , images/product-img/mouse/zowie/benq fk2/3.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,13 +131,6 @@
       <color rgb="FF212529"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,10 +153,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C96D11-BF0A-3744-8BF6-1697F4F221B5}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="137.33203125" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -466,23 +494,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -490,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -498,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -506,31 +534,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -538,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -546,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -554,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -562,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -570,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -578,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -586,7 +614,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -594,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
@@ -602,17 +630,79 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
